--- a/main/key.xlsx
+++ b/main/key.xlsx
@@ -64,13 +64,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.98828125" customWidth="true"/>
-    <col min="2" max="2" width="11.74609375" customWidth="true"/>
-    <col min="3" max="3" width="15.0" customWidth="true"/>
-    <col min="4" max="4" width="14.859375" customWidth="true"/>
-    <col min="5" max="5" width="17.35546875" customWidth="true"/>
-    <col min="6" max="6" width="6.7578125" customWidth="true"/>
-    <col min="7" max="7" width="6.7578125" customWidth="true"/>
+    <col min="1" max="1" width="9.25" customWidth="true"/>
+    <col min="2" max="2" width="9.25" customWidth="true"/>
+    <col min="3" max="3" width="12.5078125" customWidth="true"/>
+    <col min="4" max="4" width="11.12109375" customWidth="true"/>
+    <col min="5" max="5" width="11.12109375" customWidth="true"/>
+    <col min="6" max="6" width="5.51171875" customWidth="true"/>
+    <col min="7" max="7" width="5.51171875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/key.xlsx
+++ b/main/key.xlsx
@@ -64,13 +64,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="true"/>
-    <col min="2" max="2" width="9.25" customWidth="true"/>
-    <col min="3" max="3" width="12.5078125" customWidth="true"/>
-    <col min="4" max="4" width="11.12109375" customWidth="true"/>
-    <col min="5" max="5" width="11.12109375" customWidth="true"/>
-    <col min="6" max="6" width="5.51171875" customWidth="true"/>
-    <col min="7" max="7" width="5.51171875" customWidth="true"/>
+    <col min="1" max="1" width="12.98828125" customWidth="true"/>
+    <col min="2" max="2" width="11.74609375" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+    <col min="4" max="4" width="14.859375" customWidth="true"/>
+    <col min="5" max="5" width="17.35546875" customWidth="true"/>
+    <col min="6" max="6" width="6.7578125" customWidth="true"/>
+    <col min="7" max="7" width="6.7578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
